--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/43_Karabük_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/43_Karabük_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D2EDCA-BB76-4E21-B035-22D93545F0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31C43C4B-2F1C-4E5A-B3D7-027E2265B0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{730E93A6-BBB1-4886-B56B-F01CF60C4AA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="694" xr2:uid="{4870F48E-D755-427B-9B12-A3F66E8C3CED}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -950,14 +950,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7B34C660-7FD0-4EB6-A7B0-47938E54B6B8}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5C7DE00C-B032-4A2E-A529-EEF344E9FC25}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{7363B82A-96B8-48F9-9CB2-FB4F8EA4FC7D}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{EB818BFB-03C4-4309-8A35-C5DCA2827DA9}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{21D8AF1D-44D1-4027-A420-9EE47488DA50}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{67FE1148-854A-4CD7-B4F6-C9604CA12CC7}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{53E059EC-5C24-4C16-BB44-2AF31AB0747F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{37E032BE-45AF-4FC9-951A-99543ECE17A6}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F71FA8EB-90B3-4881-A2E8-E7981CA0C776}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4747B49D-DDD6-451C-937A-D92BC31192CB}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{54DDFA40-7EF7-49A5-B88B-D3301DA36282}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{97751875-B286-4039-BD2F-2718BB902658}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D3D38562-8B8E-4B58-A08A-836F97B673FB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{434457D6-3D27-45DD-8301-5931864FCD98}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{5733516B-AA33-4611-BAAD-98462272660F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{76140AB6-2762-4085-A97C-8F03A9D4E340}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B26545-A7C6-465B-8225-285C5D028A5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC0B6DD-556C-4F43-BBD9-31930CD0E918}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2612,18 +2612,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E6F8503-AC4A-4E20-A024-7FFCDB52059F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5ADCA1CF-27DB-4561-92E0-F13AAAD5078B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6043F9C-2BF0-465E-B118-C3B7D65E4C9D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BB5C1E05-7F00-4BB5-B964-D7D934672794}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74A3CDDA-3424-47DA-8909-F0577D92F54A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B936300-F0EC-4B31-8E8A-64C3310146A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DC129BCB-AE80-4448-92A5-75FDFEBF6FB4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EAB0A6C-9F48-4ED8-8960-0CDF8580975F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E239DBB4-C6A7-4070-815A-0C1CE0BBBA49}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B2692DCE-8E46-40CB-8569-DC39FA7E8473}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA9E6361-E4E0-4851-AE0F-90758A2FFBBC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A550E83-6FE7-43F9-92E2-2D6ACC42CBA6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C91C1D4-B825-4930-8FC7-B09D4BDB847B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A6990428-7F70-4347-8C1E-9F4C0773400E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0098609D-4E21-49E4-AD22-5B4121A6E6D9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{00D5F46C-50E4-4D8D-9A15-DA4A5A5A929B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01034FD3-4313-4974-AE48-E3046BD66E6E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{69066DE7-8E72-4B0C-AD1C-07456E0486C5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12B9999C-7F78-4CBE-A638-FD55CF426FE6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A109FB3-036D-401D-87F0-E0D848B7EA8A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6B88DCA-A5BD-49BA-8BBB-6ACA71024537}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B43A8B65-43E4-4B67-B689-A413675E079F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BF53EB9-8A1A-4573-9911-618A9DCF452B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2FC09E32-E55E-41FB-B173-92E5675E841E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2636,7 +2636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CE04D0-39C2-42B9-9EF7-4A71784C584F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F9DE75-23F9-43CC-8F9D-64A1301E7794}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3887,18 +3887,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7A00BD6-A266-4545-9DF4-FADEB164B16D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82DDA217-EAE9-4B3E-991E-C46FB640CE10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3DEE7940-86EA-4797-A15B-4C93A9A270F2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AFD9E012-45F9-4755-B67D-DE964F3E5260}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BFD99A42-6CFB-4154-B8CB-F116ABD02477}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{19CBBA80-2F63-4458-9E1A-51FFDC43130A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97019A7E-8B9F-40C2-AA91-1506925139A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F561DB37-520E-4CF4-B038-E97368F53F42}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D1E6A44-793D-4615-A300-2A078E6A2980}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28F5505D-8E1F-49E6-8DC3-827B0253EFE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99F2A6C2-A2C5-4354-814B-EC4C8FE72CFD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1D4B85ED-1C6C-4CC8-B534-CECF68995622}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F03B8A0-DF75-4534-AA7D-A2D7C5735AAC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{455DE6EB-C7A9-4B83-8033-B23D725A1B65}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CA455E1-E86B-4F38-9D6E-2FB906E2071D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{129B1D14-EE9E-48BA-8E34-57462E6405FA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1EA40FA-3845-4E27-AF19-96B0A955CFD7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{99B5FA90-1550-489F-9FA1-27273FDB4C62}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32076D07-1CC8-49D6-B328-2FF2142E4D20}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A9A6DF4-E620-4FA8-A8D6-44F5B9DA11B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63C0BB5F-0662-4AC5-ADC2-A4F661863DCB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{765DC0A4-034E-4C79-9E73-1FF492A3D7C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F54A3E18-529B-45CB-B601-F2C079B8F09D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{90CA68B2-D433-4C8A-9C46-A2CDF79A914C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3911,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAC56C7-A0C2-4D29-AED4-49137F0397BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B9E114-2BDF-4566-975A-7C4BBD580CD0}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5158,17 +5158,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{522962D7-F6A6-43BC-9F85-8D4034892042}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0E3C5938-4EC7-461B-922A-C4415FC4CC7D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{68C5405D-3414-4F56-90C8-3239294FA87C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8AE862A-F49B-4A54-BABF-D891B2566499}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82E1F58D-08AE-4CBA-BF2F-BD09ED1FD04E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5FA05BB-8DD9-4BDC-A258-E2E5A749A310}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E978913A-98FF-4219-B2BA-8BDA2E9306CE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84B68D79-5818-467F-B733-A61669BCECDF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6CCBCF81-22FF-4C1A-B13B-A4F1118A37B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC6B5B0C-E61A-4981-83DD-CA71AE20B7A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BEE4420B-6E8A-481B-9A39-2CFE748FA169}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F32B490-18FD-482E-AEE6-A024D09F0054}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C082ABD-5812-4797-8728-7F20162AAF3A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{87ADCECE-9377-480D-B092-78D1A936BA26}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C84DB195-A54A-417A-8EF6-3595583275EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75450B9F-652A-4866-9F34-ECDFFC0E17D1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8867E556-2A2E-4653-9BD3-53B8E1F36779}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{902294F9-B21E-40AE-A850-C325A0BB1C43}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19541CBF-31EE-4EA3-8D0C-03A42B306EFA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{658C7B35-911E-4CDA-8824-6794F3DEA616}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A11FC4D-580D-498C-B9A7-5856686C61F8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F46C857-CAF7-426C-B41F-ECCBB8EECF37}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5181,7 +5181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D77C4F-A9BD-4C28-9F89-508122F8861B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F91BC4-86C1-465A-ADB5-27CECD86CF4E}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6414,18 +6414,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6395E064-769C-409C-B31C-B1C765864403}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{759331F4-2917-4072-BF5E-E20920DA9B87}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{327A9211-C7F0-418A-B78F-699C0A4A22E8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ADDA793D-35E1-4A22-B9D7-E620BA31A422}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE02AD87-C509-4095-A8A1-71CEA6FF29CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC10CC0C-BD32-408F-B093-9DB00A5FF70B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D9458D1-EA1A-4E82-8B9C-260B5D9F55E6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62698187-8BA5-412B-B79E-6C47A67127B0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9DF7908D-5BCD-4038-96D2-EC7D39106B32}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{03941D4B-21E0-4949-8247-47C3F36C928F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC8D1BDC-1D1D-41D8-AD74-8335C6E9C973}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{607CC424-F8AB-437E-8CD5-45726E866DA8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF3C530E-764A-4508-B45D-13F61F87C7E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{019439C9-B2BB-45E3-9A8F-BE3778E5AAEA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F613E270-3357-4261-A511-073CCDB90FC7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{371F5D5A-CCC7-4D2C-8C7D-15A160549387}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F9E83859-17AD-4A0A-9223-6C9132300B26}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E013BF45-6372-4862-9E63-F8BED07875A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA6FC93C-672E-4D37-9E97-904DD9BB07E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8650A3A-5723-458E-89AD-6A808078A9C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92DF8306-E87E-478E-9EE5-2895D30C119B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0CC699FB-6DB2-4B4B-B525-BEAE2F4CD83C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C377EBD-ECE0-4D30-B71C-808D84C8AD53}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F9178756-CDC3-46DF-96B7-D48E8E10661B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6438,7 +6438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80514D76-72D8-4333-ADE9-9E99B8A1F21B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F885F329-38E3-4808-B0FD-30F9DCE37438}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7723,18 +7723,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D394C2C4-0CFB-4E8D-B0F5-D6D0506B5A15}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4FBB4CBC-F183-47A6-852B-39032FFF6DFC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6128AEF-E8EC-47DB-ADB1-5ACD3821CE01}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{68DE2C9C-B4BE-495C-AC2C-26DBBBCB93AB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D06A467E-FE5F-4DD2-8093-0CE23E3C4B8C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0CC903ED-AE8C-45B4-BE5A-46B3359E748A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A81E72AE-5B45-4C5C-B816-2A8EE3A25E35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{173A8F39-52A3-4A59-93FB-567421976B6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E44BDC8E-D6AD-4EBE-81C0-6BAE32083324}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F1E8BC85-F9AE-45BF-95A8-4E0B41D9074E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C35AECED-385B-4C7C-AD3C-15466308CC03}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{611B5662-4BB3-4791-9928-7609AF66CAFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1DBF633C-4946-41E0-8F70-DCE52D0E573E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B9C53D0A-3CBC-41AE-B493-6196AEFDE982}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2FF456C2-3327-4004-9573-BA5AA1418A70}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F691E467-2D70-4553-8B41-EB5689D48D7B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86759C93-1E71-41BF-A9DB-6B0D4D51E96E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{379F8747-D312-4091-A5FB-1B60BBB1EC6F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BBF28E1-D6F0-4C35-B445-836E97853B39}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D55AB0E-763E-4370-940D-E13553BD70D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0603DFF-CEF0-4E5F-984E-E5573C39D37D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{93A051C4-A55F-4863-8D07-7564FA704BE9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A922AEA-DE24-4D2D-B7DD-67A975A687B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{971F201C-FC44-4AF8-BF4C-AED9CEDD0AD6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7747,7 +7747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E7D738-1C32-49B2-BFE6-E652742A6709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72491CD5-9514-48AB-A71A-8610CB0ACE71}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9028,18 +9028,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6C5331A-148C-4BE1-BE26-82AB154471C2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A6CB2B82-EFD9-4198-A71F-C61FDC153FD9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FEE051F3-84B6-4E38-A9B6-762199937319}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DCCBB146-0AC1-4AD6-9298-8E54507456EF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA3F97C3-B18F-4F0D-BE34-DDA29C558CC9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{616E4F9C-DB04-41BA-88C9-079984B4F62C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03DEFC7A-13F2-400F-B733-DEE282722EA4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66C74D78-8AC4-4AA3-A71C-68976698BC33}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{59C73D9E-5C9E-4A15-BB34-86E40F9ED390}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8CD8414B-E875-4A74-9C57-188716B8CB9B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89497BAA-0474-47D3-8A21-BF8985517A8C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88BC1131-C807-4325-9910-3A0D395118BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B712EAD-51E4-4588-9D7C-112993187C09}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B44F6A37-0469-44B4-A367-1B8320C998FC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05401965-B986-40CD-884D-60243B2F3D80}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4C115DB7-91BF-4991-9423-A0FDE00F4BE2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A68E7E02-54EF-49EC-88A6-9339B5A514C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A325155-79BC-4CEF-8452-E175FDD3C5B5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{371F4ABA-2EE9-417D-B945-334454B6F1CF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8CCF98E-4D8C-4F0F-B3E7-9237583DE180}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9918CCA9-378A-4509-9DC3-FC1F37AACAF5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C596BE44-7416-45B6-B0A9-F17BA659400F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47B74749-5398-4A24-97D1-D184BDE7D7C2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED7FF799-8E62-4E48-BD99-B92989E9D742}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9052,7 +9052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584A83C-885B-4A42-9E63-F0811168F6E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B2671D-50FF-4949-8184-C42393ADCA73}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10333,18 +10333,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{236C4038-D789-43AF-9E9B-16DBEB39B685}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{10EA56DF-AA40-4581-B2C9-27AE4AC719AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D839E5B4-A31F-45D1-910E-F5AE0EBD4135}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{19B0184C-332D-4397-922D-F12C39CCA20A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{588C4371-0245-4F5D-AD75-A502A208E1AF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC09D5D8-AC48-4D63-A21F-F5676089AD78}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{503256C1-ABED-469F-8379-14EC39729102}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FF1B389-5119-4203-B71F-FEC8DD8414F2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D013C86-68AF-42E7-A338-C0E4FA105D4B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B4BB3F40-33B8-4560-83DD-971F5CDFBADC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4FAF3DA-2E58-4820-A045-14257130A08F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F126558-0864-40D5-A9A2-681B4A323A6F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0899BFBA-6F3E-4929-9610-3F869DAA1AC4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FA032D30-92A7-4276-8F94-77D4D82A4C3A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF5E3733-BDB2-4605-9EE2-A219236018C6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B7C30F72-5D27-4742-A1B4-E2A201FA94D4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE771093-C5C2-4DDB-80F7-DC2D8B1D8B60}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37B6C36E-AC99-4F94-A481-D9EBF502D65D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{895016AE-EBC8-4CE1-842A-0B32F030CD4F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{194B9060-BBE6-41C3-8309-4CD2B69AFE40}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BFFD8096-C981-4887-BE23-A08651040098}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F65E78F-7278-49C6-881F-492D129F4C04}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CA8357A-72DF-4533-8711-E8F295BDCFDB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{826D95AE-D81E-4E58-9D83-055DB3CEAD53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10357,7 +10357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C59759-AF14-4AE7-91D4-0A35612AD81F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28987CB3-9311-4FB7-BA0B-72122C8B38D2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11634,18 +11634,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3042F671-481C-4792-9561-94C6733C9039}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1328553A-BD97-4A68-A422-70B83B0D433F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1E61644-04AF-45B1-8B32-DE52FA568F6C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{976BED1B-A0C9-4BD0-8A77-07EAA0A477C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A3CACB4-F7E3-4B64-AED4-643974142E54}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD4F77CC-0D2B-4BD2-B783-475B97DC6296}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B2C1DAA-E229-4D6A-8372-A9DAA45DC9EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A10C9D0B-0EE2-48AC-885A-C9E22707CE34}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{220BE49B-7413-4AD1-9976-D941C99D225E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DDBEE2FE-3100-4381-938E-9DDF1AC10B8D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83542D8E-9AA2-4756-837F-E9EDC8FA03FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD1D2625-CF75-4E73-8CDE-F20DE7FD39AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27773854-A91A-453D-BACC-7F85A3241930}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EDCA1A23-B14A-4E08-9D74-BE9D05F7124B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0822F043-2FB3-4634-9ACC-D858620AC75F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A756F7D6-1DEF-4DA4-B185-59C3B1EB014F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{13867CA2-9979-4399-9DC7-B85FC19CF663}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ECFBE3DF-B8E1-4FCB-B2A8-4DC51861D06C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{006A87F1-4B6F-489E-92C1-CF5176DAF8E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{46A63557-6D1B-424F-A309-089B887BCD9F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0FC3F859-101A-47C3-AA08-77204E8F4143}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3EFA1FB1-252F-41AB-A97A-6A3376222D8D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F787DCF-1842-4381-AF7F-4FB936D8ED36}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24936E30-F8E1-49AD-BD03-6D52B1B52AC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11658,7 +11658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39593E3A-0E8C-421A-9904-F47B2C1A0E86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0FF27B-7053-4234-8E3E-5CCED705E0D6}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12923,18 +12923,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D16E2AC2-924D-4918-8123-B072057ED171}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F72E958B-B856-46BB-9C16-317387F0642F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CCD5A4FF-0BF4-4732-99FD-89EEBC2687F2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{60916604-F2AF-43F2-AC37-718F8F346C32}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9DB58C51-B9FA-4119-A635-FEBEEEF2CA8D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3CED26A3-BA04-41D9-9564-FC73A71D9B27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{271F67AD-D6FF-4E3E-BBC7-C5F81255138D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D4A3D60-C13D-4F2B-BDF1-E70B04643BB4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B0F3ECA-25EF-4BCB-A325-C0A2D31972EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{90F7B46E-961F-47A0-A96D-BE55B49516A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1DF2EBA-4845-4EAE-9BA1-25AEBE4A7857}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E56FFBFA-46AF-4E52-8E30-3F3FE95060B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49280CFA-EE72-478C-A823-7B3977223122}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{391F233D-D0B1-4ACE-8591-CDEBA1AD6D17}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{969E56C9-4EA9-4EA1-9349-66B514A4C986}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E7D2588F-DD8F-4C75-99D8-CDBD750DE204}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FDC9C15E-4F7F-4BE4-8365-FDA7C10A43A4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA1DBA1D-474B-428B-B3F8-4CBD544B2749}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{854EA556-F8BD-460F-94DF-C5307B0A8C68}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB06E184-E650-44DF-9005-E2DABA847E13}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7260C53-989D-4E56-B852-85F6A0B759E6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{448FFE1D-5EF2-4472-8948-D9CB55E2FCF2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C81F6487-AB45-4FF5-A18F-5E4C14A2ECA7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDEB63D9-616C-45FA-8CA1-8FD3425D62D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12947,7 +12947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC97BCF-0D2A-46A0-9B37-72425B07D5CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAF73B4-01A9-44C8-A310-17DEE120D443}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14212,18 +14212,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67BA6279-114A-4468-8775-E2128AFB5C5E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4DCF98AD-733B-40C4-A6EC-32872190F302}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD204603-5AD4-4B42-A605-351A9F83F962}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1CA1949E-11CD-4604-BDD4-308C2247EFB5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0BD89829-0F55-4DEF-B34D-21A6C1C6CDA7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5CC540EC-843C-4935-A4A1-386CF995C143}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5049D360-5DF6-47A0-8CF8-EDC18B2EF0FD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88E88BF9-42C6-4FEE-B710-87A7C2CCB4BF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{079931A5-ADB9-4211-8FF5-1AC056F68A42}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F5F07CB-3F12-4355-853D-9C70F5DA2DCE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BCB4262D-0C00-4889-B337-B37B2EE9AA3B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1BBC7875-1C18-4AEB-A7EB-CC643A54CB73}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7639937E-9806-44B6-95F9-6B649D6F7013}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E82FCCBF-A90C-44FB-8CFB-22BEE820FC27}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7474839D-775A-452A-B1D8-70AF90272CCB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CF0AA4D8-77C5-41D5-936E-5D9BD755935D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A4EE26A-7443-45D1-BE79-3AEB9721BE66}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F1A06CC-0F8F-4CDE-92E0-61D449B0D0D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D451DA28-2729-4543-B803-A66EBAC3DE27}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EECF65B-AEC7-44CD-A22B-10AB117BCF24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B774FC79-38A2-467B-82B1-1219EBB33E83}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{37D542EA-5103-4676-B5ED-5F41E9343880}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{76C949B0-569C-4D2F-866F-E5512AD4FC54}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB776B20-CF38-4A8A-8752-B292C63DE3A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14236,7 +14236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDA26E4-2DB5-40F2-BF66-8EDAC5A38DF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30708A46-99B1-4DA1-9481-F70CB5331007}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15501,18 +15501,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98C5A99B-8219-4F2A-A85A-CA43E3953CE3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{69F2CC01-50D2-48A8-89F1-E95B3F75A941}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{819265BB-DB45-40C0-81E9-2232F71315FF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CA9D013A-3FB2-4EA3-BC1E-767BF1B84A75}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2CB8FC70-AF12-4B5E-987E-011EEA41EDDC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFCEBF19-49E6-49A4-B70F-2A071B9B543A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2CF31F4-9E90-4648-842B-C4CFC9996ED1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2CC95782-0F11-4C35-91BE-908E0533C4B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8AA6F87-EEDC-4D9C-965D-CDE0FAD7467B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F6A5C18-C3C7-44D8-B028-4B496EAF7624}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{032B2413-AA28-4A3E-BA60-B543B44054B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{176488F7-51F0-4E5F-8E69-A4773CC58BD6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB675130-3379-4D06-8A8F-6712C009EF10}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11F7E98E-A394-4FF4-BF29-4CCF55A7EC8B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC0248D6-DA39-42ED-ACE4-8AE0D05C5B12}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{58A808E3-8891-4CA0-9C53-6FAFC0BABBBB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61A33D78-CB79-4036-B089-665A0B9AEE44}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E96756D6-CF7B-4008-A797-CC7C0C052DFE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2FEB61CB-92D2-4E0C-A70A-607EB9522EB4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{130E4EBD-2812-4CE7-A164-8F8CE027A902}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EEB18CBD-CE16-46F3-A0F4-0A863CD54F99}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{70448C77-5E1A-4C73-9035-1331DA15F60D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B02B58E-DA56-4BE0-84DA-929E3256E8B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F046322-91F2-475E-A67A-B0907C5868A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15525,7 +15525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFE2E26-3177-4BDD-A949-1D8340A99E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A159A93C-AF54-4F3C-A960-CDBF9A8E743F}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16776,18 +16776,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE4E1E0A-C43F-4C05-8F70-A961FE688B95}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0631E781-1EC5-4E4D-A056-E3ABDB671687}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B13ECA8-2E48-499E-BBEC-5FDA13F9C1D7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C9880FEA-5170-48BC-B439-15F5F575AB69}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D66BACF-12F6-4FDA-9199-545AB347B132}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E024FD34-E341-4048-8DBE-A7AC8ECA3235}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{387DC113-78B4-4999-972C-CC8DC5E91220}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F37ACEA2-4796-4917-AEFF-610A05959354}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F2F0527-587A-4114-B360-9EAF6DAB8D71}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8964197E-2C1A-4866-A82A-07CD627ED085}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A35E22B-9A91-4F0C-9A98-0F5AFBDF354F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63CFE32A-F37E-4EE8-830F-35B786313507}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{301DCFF9-278B-45AD-9B78-8BE5218A6DF5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0777FAEC-F5AA-4923-9ACF-0F2B897727C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3291D0E0-6950-4942-9AC3-5EEE52FD32F0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C1C434EB-A1CD-4CA6-AAD7-28E7577079E4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE727202-BE68-449D-8F20-4A4DBD06E615}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7A5718AD-ABC8-42B4-A653-CB29189275CD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89DB4439-BC41-4F93-90EB-9BF9D5D4087A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{112F806C-B5FC-46C5-9FA1-8BE7EFEE2382}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0EBD8CD9-62BF-4B9E-B507-7B6E02C51FDD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{476F8B52-4361-4BF9-B35A-4F00FAB283E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7CE60629-E4E7-4E52-8511-B0E3C9910EB0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27DA567D-4BC6-432D-860A-38762A378547}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
